--- a/Finflux Automation Excels/Client/4988-DisbLoan-ApplyClientCharge-PayThroughCollectionSheet.xlsx
+++ b/Finflux Automation Excels/Client/4988-DisbLoan-ApplyClientCharge-PayThroughCollectionSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>Loantermtype</t>
   </si>
   <si>
-    <t>4,210   $</t>
-  </si>
-  <si>
     <t>CollectionAdvancePaymentDetails</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>NavigateToLoan</t>
+  </si>
+  <si>
+    <t>4,310   $</t>
   </si>
 </sst>
 </file>
@@ -331,9 +331,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="d\ mmm\ yy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,11 +350,6 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -379,6 +374,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -413,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,14 +448,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -453,14 +461,29 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,157 +976,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="21">
         <v>42005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="21">
         <v>42005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="23">
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="21">
         <v>42005</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="25">
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="21">
         <v>42005</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="21">
         <v>42005</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="27" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1117,7 +1141,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1186,7 @@
       <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>42038</v>
       </c>
     </row>
@@ -1194,7 +1218,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>53</v>
@@ -1235,142 +1259,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>42066</v>
       </c>
-      <c r="C3" s="16">
-        <v>100</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="C3" s="12">
+        <v>100</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>42059</v>
       </c>
-      <c r="C4" s="16">
-        <v>100</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="C4" s="12">
+        <v>100</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>42052</v>
       </c>
-      <c r="C5" s="16">
-        <v>100</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <v>42045</v>
       </c>
-      <c r="C6" s="16">
-        <v>100</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="13">
         <v>42038</v>
       </c>
-      <c r="C7" s="16">
-        <v>100</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="C7" s="12">
+        <v>100</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
         <v>100</v>
       </c>
     </row>
@@ -1393,139 +1417,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>42066</v>
       </c>
-      <c r="C3" s="16">
-        <v>100</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="C3" s="12">
+        <v>100</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>42059</v>
       </c>
-      <c r="C4" s="16">
-        <v>100</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="C4" s="12">
+        <v>100</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>42052</v>
       </c>
-      <c r="C5" s="16">
-        <v>100</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <v>42045</v>
       </c>
-      <c r="C6" s="16">
-        <v>100</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="13">
         <v>42038</v>
       </c>
-      <c r="C7" s="16">
-        <v>100</v>
-      </c>
-      <c r="D7" s="16">
-        <v>100</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="C7" s="12">
+        <v>100</v>
+      </c>
+      <c r="D7" s="12">
+        <v>100</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1538,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1573,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -1557,7 +1581,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="3">
@@ -1565,7 +1589,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1573,7 +1597,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1581,7 +1605,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1589,50 +1613,50 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <v>3000</v>
       </c>
     </row>
@@ -1656,87 +1680,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>35</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="18">
+        <v>42038</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>35</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C3" s="18">
         <v>42038</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>36</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="22">
-        <v>42038</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
